--- a/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_10.xlsx
@@ -454,7 +454,7 @@
         <v>2066</v>
       </c>
       <c r="D2" t="n">
-        <v>12.72595119476318</v>
+        <v>11.10721850395203</v>
       </c>
     </row>
   </sheetData>
